--- a/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='Condominium'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='Condominium'.xlsx
@@ -428,15 +428,12 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.59550349686259207</v>
+        <v>0.59552385074022696</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.46966582434933157</v>
+        <v>0.46964675900088382</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>0.46833366519022601</v>
+        <v>0.46828344189333648</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>0.43346059406345538</v>
+        <v>0.43345989841073113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -573,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0.4226005768169514</v>
+        <v>0.42260308605055391</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -587,7 +584,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>0.38649283349139257</v>
+        <v>0.38646993106784922</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -601,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0.33534861537818761</v>
+        <v>0.33538786201129689</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>0.28120131843893881</v>
+        <v>0.28120607136918019</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <v>0.28018499340889841</v>
+        <v>0.28015621206029112</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>0.2383106952312862</v>
+        <v>0.23838119668710239</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>0.20972640950723301</v>
+        <v>0.209788178576885</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>0.1667032260677197</v>
+        <v>0.166696613894143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>0.1489236791678944</v>
+        <v>0.14891428267492621</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>0.1465356972543887</v>
+        <v>0.1465541527071621</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="D25">
-        <v>0.1364617409265752</v>
+        <v>0.1364713713126767</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>0.13240169713100541</v>
+        <v>0.13236570925813879</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -811,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>7.0856052980848655E-2</v>
+        <v>7.0869144905868042E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>5.4645721950371103E-2</v>
+        <v>5.4602822901865508E-2</v>
       </c>
     </row>
   </sheetData>
